--- a/Resources/ExportCuttingForm.xlsx
+++ b/Resources/ExportCuttingForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CompanyProjects\cloth-cutting-data-report\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TechlinkProjects\techlink-new-all-in-one\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980DF0BE-24D6-4D2A-8374-BC2BB14F1E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0AF8C-A596-43E6-B505-E0CC6C72896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -137,6 +137,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +427,7 @@
   <dimension ref="A1:G453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +435,7 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="7" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.21875" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
@@ -470,7 +477,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -483,7 +490,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -492,7 +499,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -501,7 +508,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -510,7 +517,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -519,7 +526,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -528,7 +535,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -537,7 +544,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -546,7 +553,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -555,7 +562,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -564,7 +571,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -573,7 +580,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -582,7 +589,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -591,7 +598,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -600,7 +607,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -609,7 +616,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -618,7 +625,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -627,7 +634,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -636,7 +643,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -645,7 +652,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -654,7 +661,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -663,7 +670,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -672,7 +679,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -681,7 +688,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -690,7 +697,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -699,7 +706,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -708,7 +715,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -717,7 +724,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -726,7 +733,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -735,7 +742,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -744,7 +751,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -753,7 +760,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -762,7 +769,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -771,7 +778,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -780,7 +787,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -789,7 +796,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -798,7 +805,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -807,7 +814,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -816,7 +823,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -825,7 +832,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -834,7 +841,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -843,7 +850,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -852,7 +859,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -861,7 +868,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -870,7 +877,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -879,7 +886,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -888,7 +895,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -897,7 +904,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -906,7 +913,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -915,7 +922,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -924,7 +931,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -933,7 +940,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -942,7 +949,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -951,7 +958,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -960,7 +967,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -969,7 +976,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -978,7 +985,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -987,7 +994,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -996,7 +1003,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1005,7 +1012,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -1014,7 +1021,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -1023,7 +1030,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1032,7 +1039,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -1041,7 +1048,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -1050,7 +1057,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -1059,7 +1066,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -1068,7 +1075,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -1077,7 +1084,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -1086,7 +1093,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -1095,7 +1102,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -1104,7 +1111,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -1113,7 +1120,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -1122,7 +1129,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -1131,7 +1138,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -1140,7 +1147,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -1149,7 +1156,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -1158,7 +1165,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -1167,7 +1174,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -1176,7 +1183,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -1185,7 +1192,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -1194,7 +1201,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -1203,7 +1210,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -1212,7 +1219,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -1221,7 +1228,7 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -1230,7 +1237,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -1239,7 +1246,7 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -1248,7 +1255,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -1257,7 +1264,7 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -1266,7 +1273,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="6"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -1275,7 +1282,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -1284,7 +1291,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -1293,7 +1300,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -1302,7 +1309,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -1311,7 +1318,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -1320,7 +1327,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -1329,7 +1336,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -1338,7 +1345,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -1347,7 +1354,7 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -1356,7 +1363,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -1365,7 +1372,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -1374,7 +1381,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -1383,7 +1390,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -1392,7 +1399,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -1401,7 +1408,7 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -1410,7 +1417,7 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -1419,7 +1426,7 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -1428,7 +1435,7 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -1437,7 +1444,7 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -1446,7 +1453,7 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -1455,7 +1462,7 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -1464,7 +1471,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -1473,7 +1480,7 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -1482,7 +1489,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -1491,7 +1498,7 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -1500,7 +1507,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -1509,7 +1516,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -1518,7 +1525,7 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -1527,7 +1534,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -1536,7 +1543,7 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -1545,7 +1552,7 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="6"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -1554,7 +1561,7 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -1563,7 +1570,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -1572,7 +1579,7 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -1581,7 +1588,7 @@
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -1590,7 +1597,7 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -1599,7 +1606,7 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -1608,7 +1615,7 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -1617,7 +1624,7 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -1626,7 +1633,7 @@
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -1635,7 +1642,7 @@
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -1644,7 +1651,7 @@
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -1653,7 +1660,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -1662,7 +1669,7 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -1671,7 +1678,7 @@
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -1680,7 +1687,7 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -1689,7 +1696,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -1698,7 +1705,7 @@
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -1707,7 +1714,7 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -1716,7 +1723,7 @@
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -1725,7 +1732,7 @@
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -1734,7 +1741,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -1743,7 +1750,7 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -1752,7 +1759,7 @@
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -1761,7 +1768,7 @@
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -1770,7 +1777,7 @@
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -1779,7 +1786,7 @@
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -1788,7 +1795,7 @@
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -1797,7 +1804,7 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -1806,7 +1813,7 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -1815,7 +1822,7 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -1824,7 +1831,7 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -1833,7 +1840,7 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -1842,7 +1849,7 @@
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="6"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -1851,7 +1858,7 @@
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -1860,7 +1867,7 @@
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -1869,7 +1876,7 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -1878,7 +1885,7 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="6"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -1887,7 +1894,7 @@
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -1896,7 +1903,7 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="6"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -1905,7 +1912,7 @@
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="6"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -1914,7 +1921,7 @@
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -1923,7 +1930,7 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -1932,7 +1939,7 @@
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -1941,7 +1948,7 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -1950,7 +1957,7 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -1959,7 +1966,7 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="6"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -1968,7 +1975,7 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -1977,7 +1984,7 @@
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -1986,7 +1993,7 @@
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -1995,7 +2002,7 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="6"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -2004,7 +2011,7 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -2013,7 +2020,7 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="6"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -2022,7 +2029,7 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="6"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -2031,7 +2038,7 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="6"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -2040,7 +2047,7 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -2049,7 +2056,7 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -2058,7 +2065,7 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -2067,7 +2074,7 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="6"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -2076,7 +2083,7 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="6"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -2085,7 +2092,7 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="6"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -2094,7 +2101,7 @@
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -2103,7 +2110,7 @@
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -2112,7 +2119,7 @@
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -2121,7 +2128,7 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="6"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -2130,7 +2137,7 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="6"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -2139,7 +2146,7 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -2148,7 +2155,7 @@
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -2157,7 +2164,7 @@
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -2166,7 +2173,7 @@
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -2175,7 +2182,7 @@
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -2184,7 +2191,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -2193,7 +2200,7 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -2202,7 +2209,7 @@
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -2211,7 +2218,7 @@
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
+      <c r="D196" s="6"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -2220,7 +2227,7 @@
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+      <c r="D197" s="6"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -2229,7 +2236,7 @@
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -2238,7 +2245,7 @@
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="D199" s="6"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -2247,7 +2254,7 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="D200" s="6"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -2256,7 +2263,7 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="D201" s="6"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -2265,7 +2272,7 @@
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="D202" s="6"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -2274,7 +2281,7 @@
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="D203" s="6"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -2283,7 +2290,7 @@
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="6"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -2292,7 +2299,7 @@
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="D205" s="6"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -2301,7 +2308,7 @@
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="6"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -2310,7 +2317,7 @@
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="D207" s="6"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -2319,7 +2326,7 @@
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="D208" s="6"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -2328,7 +2335,7 @@
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="6"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -2337,7 +2344,7 @@
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="6"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -2346,7 +2353,7 @@
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="D211" s="6"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -2355,7 +2362,7 @@
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="6"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -2364,7 +2371,7 @@
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="6"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -2373,7 +2380,7 @@
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="6"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -2382,7 +2389,7 @@
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="6"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -2391,7 +2398,7 @@
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="6"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -2400,7 +2407,7 @@
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="6"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -2409,7 +2416,7 @@
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="6"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -2418,7 +2425,7 @@
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="6"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -2427,7 +2434,7 @@
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="6"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -2436,7 +2443,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="6"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -2445,7 +2452,7 @@
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="6"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -2454,7 +2461,7 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="6"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -2463,7 +2470,7 @@
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="6"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -2472,7 +2479,7 @@
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="6"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -2481,7 +2488,7 @@
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="6"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -2490,7 +2497,7 @@
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="6"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -2499,7 +2506,7 @@
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="6"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -2508,7 +2515,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="6"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -2517,7 +2524,7 @@
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="6"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -2526,7 +2533,7 @@
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="6"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -2535,7 +2542,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="6"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -2544,7 +2551,7 @@
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
+      <c r="D233" s="6"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -2553,7 +2560,7 @@
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="6"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -2562,7 +2569,7 @@
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="6"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -2571,7 +2578,7 @@
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="6"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -2580,7 +2587,7 @@
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="6"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -2589,7 +2596,7 @@
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
+      <c r="D238" s="6"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -2598,7 +2605,7 @@
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
+      <c r="D239" s="6"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -2607,7 +2614,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
+      <c r="D240" s="6"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -2616,7 +2623,7 @@
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="6"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -2625,7 +2632,7 @@
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
+      <c r="D242" s="6"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -2634,7 +2641,7 @@
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="D243" s="6"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -2643,7 +2650,7 @@
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="D244" s="6"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -2652,7 +2659,7 @@
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="D245" s="6"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -2661,7 +2668,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="D246" s="6"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -2670,7 +2677,7 @@
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
+      <c r="D247" s="6"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -2679,7 +2686,7 @@
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
+      <c r="D248" s="6"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -2688,7 +2695,7 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
+      <c r="D249" s="6"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -2697,7 +2704,7 @@
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
+      <c r="D250" s="6"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -2706,7 +2713,7 @@
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
+      <c r="D251" s="6"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -2715,7 +2722,7 @@
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="6"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -2724,7 +2731,7 @@
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="6"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -2733,7 +2740,7 @@
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
+      <c r="D254" s="6"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -2742,7 +2749,7 @@
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
+      <c r="D255" s="6"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -2751,7 +2758,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="6"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -2760,7 +2767,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
+      <c r="D257" s="6"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -2769,7 +2776,7 @@
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
+      <c r="D258" s="6"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -2778,7 +2785,7 @@
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
+      <c r="D259" s="6"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -2787,7 +2794,7 @@
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="6"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -2796,7 +2803,7 @@
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
+      <c r="D261" s="6"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -2805,7 +2812,7 @@
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="D262" s="6"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -2814,7 +2821,7 @@
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="D263" s="6"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -2823,7 +2830,7 @@
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="D264" s="6"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -2832,7 +2839,7 @@
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
+      <c r="D265" s="6"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -2841,7 +2848,7 @@
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
+      <c r="D266" s="6"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -2850,7 +2857,7 @@
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="D267" s="6"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -2859,7 +2866,7 @@
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
+      <c r="D268" s="6"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -2868,7 +2875,7 @@
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
+      <c r="D269" s="6"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -2877,7 +2884,7 @@
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
+      <c r="D270" s="6"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -2886,7 +2893,7 @@
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
+      <c r="D271" s="6"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -2895,7 +2902,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="D272" s="6"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -2904,7 +2911,7 @@
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="D273" s="6"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -2913,7 +2920,7 @@
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="D274" s="6"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -2922,7 +2929,7 @@
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="D275" s="6"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -2931,7 +2938,7 @@
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="D276" s="6"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -2940,7 +2947,7 @@
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
+      <c r="D277" s="6"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -2949,7 +2956,7 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
+      <c r="D278" s="6"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -2958,7 +2965,7 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
+      <c r="D279" s="6"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -2967,7 +2974,7 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
+      <c r="D280" s="6"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -2976,7 +2983,7 @@
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="D281" s="6"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -2985,7 +2992,7 @@
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="D282" s="6"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -2994,7 +3001,7 @@
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="D283" s="6"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -3003,7 +3010,7 @@
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
+      <c r="D284" s="6"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -3012,7 +3019,7 @@
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
+      <c r="D285" s="6"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -3021,7 +3028,7 @@
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
+      <c r="D286" s="6"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -3030,7 +3037,7 @@
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
+      <c r="D287" s="6"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -3039,7 +3046,7 @@
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
+      <c r="D288" s="6"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -3048,7 +3055,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
+      <c r="D289" s="6"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -3057,7 +3064,7 @@
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
+      <c r="D290" s="6"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -3066,7 +3073,7 @@
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
+      <c r="D291" s="6"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -3075,7 +3082,7 @@
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="D292" s="6"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -3084,7 +3091,7 @@
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
+      <c r="D293" s="6"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -3093,7 +3100,7 @@
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
+      <c r="D294" s="6"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -3102,7 +3109,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="D295" s="6"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -3111,7 +3118,7 @@
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
+      <c r="D296" s="6"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -3120,7 +3127,7 @@
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
+      <c r="D297" s="6"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -3129,7 +3136,7 @@
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
+      <c r="D298" s="6"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -3138,7 +3145,7 @@
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
+      <c r="D299" s="6"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -3147,7 +3154,7 @@
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
+      <c r="D300" s="6"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -3156,7 +3163,7 @@
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
+      <c r="D301" s="6"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -3165,7 +3172,7 @@
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
+      <c r="D302" s="6"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -3174,7 +3181,7 @@
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
+      <c r="D303" s="6"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -3183,7 +3190,7 @@
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
+      <c r="D304" s="6"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -3192,7 +3199,7 @@
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
+      <c r="D305" s="6"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -3201,7 +3208,7 @@
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
+      <c r="D306" s="6"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -3210,7 +3217,7 @@
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
+      <c r="D307" s="6"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -3219,7 +3226,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="D308" s="6"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -3228,7 +3235,7 @@
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
+      <c r="D309" s="6"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -3237,7 +3244,7 @@
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
+      <c r="D310" s="6"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -3246,7 +3253,7 @@
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
+      <c r="D311" s="6"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -3255,7 +3262,7 @@
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
+      <c r="D312" s="6"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -3264,7 +3271,7 @@
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
+      <c r="D313" s="6"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -3273,7 +3280,7 @@
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
+      <c r="D314" s="6"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -3282,7 +3289,7 @@
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
+      <c r="D315" s="6"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -3291,7 +3298,7 @@
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
+      <c r="D316" s="6"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -3300,7 +3307,7 @@
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
+      <c r="D317" s="6"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -3309,7 +3316,7 @@
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
+      <c r="D318" s="6"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -3318,7 +3325,7 @@
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
+      <c r="D319" s="6"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -3327,7 +3334,7 @@
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
+      <c r="D320" s="6"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -3336,7 +3343,7 @@
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
+      <c r="D321" s="6"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -3345,7 +3352,7 @@
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
+      <c r="D322" s="6"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -3354,7 +3361,7 @@
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
+      <c r="D323" s="6"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -3363,7 +3370,7 @@
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
+      <c r="D324" s="6"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -3372,7 +3379,7 @@
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
+      <c r="D325" s="6"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -3381,7 +3388,7 @@
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
+      <c r="D326" s="6"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -3390,7 +3397,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
+      <c r="D327" s="6"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -3399,7 +3406,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
+      <c r="D328" s="6"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -3408,7 +3415,7 @@
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
+      <c r="D329" s="6"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -3417,7 +3424,7 @@
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
+      <c r="D330" s="6"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -3426,7 +3433,7 @@
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
+      <c r="D331" s="6"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -3435,7 +3442,7 @@
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
+      <c r="D332" s="6"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -3444,7 +3451,7 @@
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
+      <c r="D333" s="6"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -3453,7 +3460,7 @@
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
+      <c r="D334" s="6"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -3462,7 +3469,7 @@
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
+      <c r="D335" s="6"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -3471,7 +3478,7 @@
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
+      <c r="D336" s="6"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -3480,7 +3487,7 @@
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
+      <c r="D337" s="6"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -3489,7 +3496,7 @@
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
+      <c r="D338" s="6"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -3498,7 +3505,7 @@
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
+      <c r="D339" s="6"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
@@ -3507,7 +3514,7 @@
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
+      <c r="D340" s="6"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -3516,7 +3523,7 @@
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
+      <c r="D341" s="6"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
@@ -3525,7 +3532,7 @@
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
+      <c r="D342" s="6"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -3534,7 +3541,7 @@
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
+      <c r="D343" s="6"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -3543,7 +3550,7 @@
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
+      <c r="D344" s="6"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -3552,7 +3559,7 @@
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
+      <c r="D345" s="6"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -3561,7 +3568,7 @@
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
+      <c r="D346" s="6"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -3570,7 +3577,7 @@
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
+      <c r="D347" s="6"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -3579,7 +3586,7 @@
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
+      <c r="D348" s="6"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -3588,7 +3595,7 @@
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
+      <c r="D349" s="6"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -3597,7 +3604,7 @@
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
+      <c r="D350" s="6"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -3606,7 +3613,7 @@
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
+      <c r="D351" s="6"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -3615,7 +3622,7 @@
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
+      <c r="D352" s="6"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -3624,7 +3631,7 @@
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
+      <c r="D353" s="6"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -3633,7 +3640,7 @@
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
+      <c r="D354" s="6"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -3642,7 +3649,7 @@
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
+      <c r="D355" s="6"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -3651,7 +3658,7 @@
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
+      <c r="D356" s="6"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -3660,7 +3667,7 @@
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
+      <c r="D357" s="6"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -3669,7 +3676,7 @@
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
+      <c r="D358" s="6"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -3678,7 +3685,7 @@
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
+      <c r="D359" s="6"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -3687,7 +3694,7 @@
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
+      <c r="D360" s="6"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -3696,7 +3703,7 @@
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
+      <c r="D361" s="6"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
@@ -3705,7 +3712,7 @@
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
+      <c r="D362" s="6"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -3714,7 +3721,7 @@
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
+      <c r="D363" s="6"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
@@ -3723,7 +3730,7 @@
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
+      <c r="D364" s="6"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
@@ -3732,7 +3739,7 @@
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
+      <c r="D365" s="6"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
@@ -3741,7 +3748,7 @@
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
+      <c r="D366" s="6"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
@@ -3750,7 +3757,7 @@
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
+      <c r="D367" s="6"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -3759,7 +3766,7 @@
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
+      <c r="D368" s="6"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -3768,7 +3775,7 @@
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
+      <c r="D369" s="6"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -3777,7 +3784,7 @@
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
+      <c r="D370" s="6"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -3786,7 +3793,7 @@
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
+      <c r="D371" s="6"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
@@ -3795,7 +3802,7 @@
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
+      <c r="D372" s="6"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
@@ -3804,7 +3811,7 @@
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
+      <c r="D373" s="6"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -3813,7 +3820,7 @@
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
+      <c r="D374" s="6"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -3822,7 +3829,7 @@
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
+      <c r="D375" s="6"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -3831,7 +3838,7 @@
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
+      <c r="D376" s="6"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -3840,7 +3847,7 @@
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
+      <c r="D377" s="6"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -3849,7 +3856,7 @@
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
+      <c r="D378" s="6"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -3858,7 +3865,7 @@
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
+      <c r="D379" s="6"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -3867,7 +3874,7 @@
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
+      <c r="D380" s="6"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -3876,7 +3883,7 @@
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
+      <c r="D381" s="6"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -3885,7 +3892,7 @@
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
+      <c r="D382" s="6"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -3894,7 +3901,7 @@
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
+      <c r="D383" s="6"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -3903,7 +3910,7 @@
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
+      <c r="D384" s="6"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -3912,7 +3919,7 @@
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
+      <c r="D385" s="6"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -3921,7 +3928,7 @@
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
+      <c r="D386" s="6"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -3930,7 +3937,7 @@
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
+      <c r="D387" s="6"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -3939,7 +3946,7 @@
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
+      <c r="D388" s="6"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -3948,7 +3955,7 @@
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
+      <c r="D389" s="6"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -3957,7 +3964,7 @@
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
+      <c r="D390" s="6"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -3966,7 +3973,7 @@
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
+      <c r="D391" s="6"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -3975,7 +3982,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
+      <c r="D392" s="6"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -3984,7 +3991,7 @@
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
+      <c r="D393" s="6"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -3993,7 +4000,7 @@
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
+      <c r="D394" s="6"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -4002,7 +4009,7 @@
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
+      <c r="D395" s="6"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
@@ -4011,7 +4018,7 @@
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
+      <c r="D396" s="6"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
@@ -4020,7 +4027,7 @@
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
+      <c r="D397" s="6"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
@@ -4029,7 +4036,7 @@
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
+      <c r="D398" s="6"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -4038,7 +4045,7 @@
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
+      <c r="D399" s="6"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -4047,7 +4054,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
+      <c r="D400" s="6"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -4056,7 +4063,7 @@
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
+      <c r="D401" s="6"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -4065,7 +4072,7 @@
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
+      <c r="D402" s="6"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -4074,7 +4081,7 @@
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
+      <c r="D403" s="6"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -4083,7 +4090,7 @@
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
+      <c r="D404" s="6"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -4092,7 +4099,7 @@
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
+      <c r="D405" s="6"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -4101,7 +4108,7 @@
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
+      <c r="D406" s="6"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -4110,7 +4117,7 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
+      <c r="D407" s="6"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -4119,7 +4126,7 @@
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
+      <c r="D408" s="6"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -4128,7 +4135,7 @@
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
+      <c r="D409" s="6"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
@@ -4137,7 +4144,7 @@
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
+      <c r="D410" s="6"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -4146,7 +4153,7 @@
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
+      <c r="D411" s="6"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -4155,7 +4162,7 @@
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
+      <c r="D412" s="6"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -4164,7 +4171,7 @@
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
+      <c r="D413" s="6"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -4173,7 +4180,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
+      <c r="D414" s="6"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -4182,7 +4189,7 @@
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
+      <c r="D415" s="6"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
@@ -4191,7 +4198,7 @@
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
+      <c r="D416" s="6"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -4200,7 +4207,7 @@
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
+      <c r="D417" s="6"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -4209,7 +4216,7 @@
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
+      <c r="D418" s="6"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -4218,7 +4225,7 @@
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
+      <c r="D419" s="6"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
@@ -4227,7 +4234,7 @@
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
+      <c r="D420" s="6"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
@@ -4236,7 +4243,7 @@
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
+      <c r="D421" s="6"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
@@ -4245,7 +4252,7 @@
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
+      <c r="D422" s="6"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -4254,7 +4261,7 @@
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
+      <c r="D423" s="6"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -4263,7 +4270,7 @@
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
+      <c r="D424" s="6"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -4272,7 +4279,7 @@
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
+      <c r="D425" s="6"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -4281,7 +4288,7 @@
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
+      <c r="D426" s="6"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -4290,7 +4297,7 @@
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
+      <c r="D427" s="6"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
@@ -4299,7 +4306,7 @@
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
+      <c r="D428" s="6"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -4308,7 +4315,7 @@
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
+      <c r="D429" s="6"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -4317,7 +4324,7 @@
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
+      <c r="D430" s="6"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -4326,7 +4333,7 @@
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
+      <c r="D431" s="6"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
@@ -4335,7 +4342,7 @@
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
+      <c r="D432" s="6"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
@@ -4344,7 +4351,7 @@
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
+      <c r="D433" s="6"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
@@ -4353,7 +4360,7 @@
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
+      <c r="D434" s="6"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
@@ -4362,7 +4369,7 @@
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
+      <c r="D435" s="6"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
@@ -4371,7 +4378,7 @@
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
+      <c r="D436" s="6"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -4380,7 +4387,7 @@
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
+      <c r="D437" s="6"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
@@ -4389,7 +4396,7 @@
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
+      <c r="D438" s="6"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
@@ -4398,7 +4405,7 @@
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
+      <c r="D439" s="6"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -4407,7 +4414,7 @@
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
+      <c r="D440" s="6"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -4416,7 +4423,7 @@
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
+      <c r="D441" s="6"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
@@ -4425,7 +4432,7 @@
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
+      <c r="D442" s="6"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -4434,7 +4441,7 @@
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
+      <c r="D443" s="6"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
@@ -4443,7 +4450,7 @@
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
+      <c r="D444" s="6"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
@@ -4452,7 +4459,7 @@
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
+      <c r="D445" s="6"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
@@ -4461,7 +4468,7 @@
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
+      <c r="D446" s="6"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
@@ -4470,7 +4477,7 @@
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
+      <c r="D447" s="6"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -4479,7 +4486,7 @@
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
+      <c r="D448" s="6"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -4488,7 +4495,7 @@
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
+      <c r="D449" s="6"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -4497,7 +4504,7 @@
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
+      <c r="D450" s="6"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
@@ -4506,7 +4513,7 @@
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
+      <c r="D451" s="6"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
@@ -4515,7 +4522,7 @@
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
+      <c r="D452" s="6"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
@@ -4524,7 +4531,7 @@
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
+      <c r="D453" s="6"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
